--- a/Titanic-Dataset-new.xlsx
+++ b/Titanic-Dataset-new.xlsx
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>7.925</v>
+        <v>7</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>8.458299999999999</v>
+        <v>8</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>51.8625</v>
+        <v>51</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>21.075</v>
+        <v>21</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>11.1333</v>
+        <v>11</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30.0708</v>
+        <v>30</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>16.7</v>
+        <v>16</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>26.55</v>
+        <v>26</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>31.275</v>
+        <v>31</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>7.8542</v>
+        <v>7</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>29.125</v>
+        <v>29</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>7.225</v>
+        <v>7</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>8.029199999999999</v>
+        <v>8</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>21.075</v>
+        <v>21</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>31.3875</v>
+        <v>31</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>7.225</v>
+        <v>7</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>7.8792</v>
+        <v>7</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>27.7208</v>
+        <v>27</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>7.2292</v>
+        <v>7</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>11.2417</v>
+        <v>11</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>9.475</v>
+        <v>9</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>41.5792</v>
+        <v>41</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>7.8792</v>
+        <v>7</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>21.6792</v>
+        <v>21</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>17.8</v>
+        <v>17</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>39.6875</v>
+        <v>39</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>61.9792</v>
+        <v>61</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>7.2292</v>
+        <v>7</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>27.75</v>
+        <v>27</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>46.9</v>
+        <v>46</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>7.2292</v>
+        <v>7</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>27.9</v>
+        <v>27</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>27.7208</v>
+        <v>27</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>15.2458</v>
+        <v>15</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>8.158300000000001</v>
+        <v>8</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>7.925</v>
+        <v>7</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>8.6625</v>
+        <v>8</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>46.9</v>
+        <v>46</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>14.4542</v>
+        <v>14</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>56.4958</v>
+        <v>56</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>7.65</v>
+        <v>7</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>12.475</v>
+        <v>12</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>7.7875</v>
+        <v>7</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>47.1</v>
+        <v>47</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>15.85</v>
+        <v>15</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>34.375</v>
+        <v>34</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>7.8542</v>
+        <v>7</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>61.175</v>
+        <v>61</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>20.575</v>
+        <v>20</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>34.6542</v>
+        <v>34</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>63.3583</v>
+        <v>63</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>8.654199999999999</v>
+        <v>8</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>7.925</v>
+        <v>7</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>7.65</v>
+        <v>7</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>7.775</v>
+        <v>7</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>14.4542</v>
+        <v>14</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>9.824999999999999</v>
+        <v>9</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>14.4583</v>
+        <v>14</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>7.925</v>
+        <v>7</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>31.275</v>
+        <v>31</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>30.0708</v>
+        <v>30</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>11.2417</v>
+        <v>11</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>7.1417</v>
+        <v>7</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>22.3583</v>
+        <v>22</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>6.975</v>
+        <v>6</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>7.05</v>
+        <v>7</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>15.0458</v>
+        <v>15</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>26.2833</v>
+        <v>26</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>9.216699999999999</v>
+        <v>9</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>15.2458</v>
+        <v>15</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>15.85</v>
+        <v>15</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>6.75</v>
+        <v>6</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>36.75</v>
+        <v>36</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>7.7958</v>
+        <v>7</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>34.375</v>
+        <v>34</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>12.525</v>
+        <v>12</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>65.6344</v>
+        <v>66</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>7.3125</v>
+        <v>7</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>61.3792</v>
+        <v>61</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>7.7333</v>
+        <v>7</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>8.6625</v>
+        <v>8</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>15.75</v>
+        <v>15</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>7.775</v>
+        <v>7</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>8.6625</v>
+        <v>8</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>39.6875</v>
+        <v>39</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>20.525</v>
+        <v>20</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>27.9</v>
+        <v>27</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>25.925</v>
+        <v>25</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>56.4958</v>
+        <v>56</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>33.5</v>
+        <v>33</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>29.125</v>
+        <v>29</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>11.1333</v>
+        <v>11</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>7.925</v>
+        <v>7</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>30.6958</v>
+        <v>30</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>7.8542</v>
+        <v>7</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>25.4667</v>
+        <v>25</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>28.7125</v>
+        <v>28</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>15.05</v>
+        <v>15</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>31.3875</v>
+        <v>31</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>22.025</v>
+        <v>22</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>26.55</v>
+        <v>26</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>7.8542</v>
+        <v>7</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>27.7208</v>
+        <v>27</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>8.404199999999999</v>
+        <v>8</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>6.4958</v>
+        <v>6</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>7.225</v>
+        <v>7</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>10.4625</v>
+        <v>10</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>15.85</v>
+        <v>15</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>18.7875</v>
+        <v>18</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>7.05</v>
+        <v>7</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>7.925</v>
+        <v>7</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -10830,7 +10830,7 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>9.35</v>
+        <v>9</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -10968,7 +10968,7 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>25.4667</v>
+        <v>25</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>7.775</v>
+        <v>7</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>31.3875</v>
+        <v>31</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>7.55</v>
+        <v>7</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>26.25</v>
+        <v>26</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>12.275</v>
+        <v>12</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>14.4542</v>
+        <v>14</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>7.125</v>
+        <v>7</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>7.225</v>
+        <v>7</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>7.775</v>
+        <v>7</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>52.5542</v>
+        <v>52</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>10.4625</v>
+        <v>10</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>26.55</v>
+        <v>26</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>20.2125</v>
+        <v>20</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>15.2458</v>
+        <v>15</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>31.3875</v>
+        <v>31</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>39.6875</v>
+        <v>39</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>7.775</v>
+        <v>7</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>29.7</v>
+        <v>29</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>29.125</v>
+        <v>29</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>20.25</v>
+        <v>20</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>7.8542</v>
+        <v>7</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>8.6625</v>
+        <v>8</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -13820,7 +13820,7 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>12.875</v>
+        <v>12</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>8.85</v>
+        <v>8</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>27.7208</v>
+        <v>27</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>7.2292</v>
+        <v>7</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>23.25</v>
+        <v>23</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>12.35</v>
+        <v>12</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>56.9292</v>
+        <v>56</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>26.25</v>
+        <v>26</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>7.8542</v>
+        <v>7</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -15200,7 +15200,7 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -15338,7 +15338,7 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>12.35</v>
+        <v>12</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>6.2375</v>
+        <v>6</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -15614,7 +15614,7 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>20.525</v>
+        <v>20</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>57.9792</v>
+        <v>57</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -15706,7 +15706,7 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>23.25</v>
+        <v>23</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -15752,7 +15752,7 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>28.5</v>
+        <v>28</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>65.6344</v>
+        <v>66</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>15.9</v>
+        <v>15</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>8.6625</v>
+        <v>8</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>9.225</v>
+        <v>9</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>7.2292</v>
+        <v>7</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>17.8</v>
+        <v>17</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>7.225</v>
+        <v>7</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>7.8792</v>
+        <v>7</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>7.8792</v>
+        <v>7</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>27.9</v>
+        <v>27</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>27.7208</v>
+        <v>27</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>14.4542</v>
+        <v>14</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>7.05</v>
+        <v>7</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>7.2292</v>
+        <v>7</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -17500,7 +17500,7 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>55.4417</v>
+        <v>55</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>6.4958</v>
+        <v>6</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>21.075</v>
+        <v>21</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>4.0125</v>
+        <v>4</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>7.775</v>
+        <v>7</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>15.7417</v>
+        <v>15</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>7.925</v>
+        <v>7</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>46.9</v>
+        <v>46</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>7.7292</v>
+        <v>7</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>7.7958</v>
+        <v>7</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>7.925</v>
+        <v>7</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>16.7</v>
+        <v>16</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>7.7958</v>
+        <v>7</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>7.8542</v>
+        <v>7</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>12.65</v>
+        <v>12</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>7.925</v>
+        <v>7</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>9.824999999999999</v>
+        <v>9</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>15.85</v>
+        <v>15</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>8.6625</v>
+        <v>8</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>18.75</v>
+        <v>18</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>7.775</v>
+        <v>7</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>25.4667</v>
+        <v>25</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>6.8583</v>
+        <v>6</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -19570,7 +19570,7 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>7.925</v>
+        <v>7</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>7.7333</v>
+        <v>7</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>7.875</v>
+        <v>7</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>20.2125</v>
+        <v>20</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>26.55</v>
+        <v>26</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -20352,7 +20352,7 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>7.125</v>
+        <v>7</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>55.9</v>
+        <v>55</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>34.375</v>
+        <v>34</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>18.75</v>
+        <v>18</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -20720,7 +20720,7 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>26.25</v>
+        <v>26</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>7.775</v>
+        <v>7</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>8.112500000000001</v>
+        <v>8</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>26.55</v>
+        <v>26</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>19.2583</v>
+        <v>19</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>27.75</v>
+        <v>27</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>19.9667</v>
+        <v>19</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>27.75</v>
+        <v>27</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -21410,7 +21410,7 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>26.55</v>
+        <v>26</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>51.8625</v>
+        <v>51</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -21686,7 +21686,7 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>26.55</v>
+        <v>26</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>38.5</v>
+        <v>38</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>7.05</v>
+        <v>7</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>26.55</v>
+        <v>26</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>7.725</v>
+        <v>7</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>19.2583</v>
+        <v>19</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>8.6625</v>
+        <v>8</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>27.75</v>
+        <v>27</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>13.7917</v>
+        <v>13</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -22330,7 +22330,7 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>9.8375</v>
+        <v>9</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>7.0458</v>
+        <v>7</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>7.5208</v>
+        <v>7</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>12.2875</v>
+        <v>12</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>46.9</v>
+        <v>46</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>9.5875</v>
+        <v>9</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>25.4667</v>
+        <v>25</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>29.7</v>
+        <v>29</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -22974,7 +22974,7 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>15.9</v>
+        <v>15</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>19.9667</v>
+        <v>19</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -23112,7 +23112,7 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>49.5042</v>
+        <v>49</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -23250,7 +23250,7 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>14.4583</v>
+        <v>14</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>7.7958</v>
+        <v>7</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>8.6625</v>
+        <v>8</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>7.6292</v>
+        <v>7</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>9.5875</v>
+        <v>9</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -23848,7 +23848,7 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>26.55</v>
+        <v>26</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>22.525</v>
+        <v>22</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>56.4958</v>
+        <v>56</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>26.2875</v>
+        <v>26</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>59.4</v>
+        <v>59</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>7.4958</v>
+        <v>7</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -24216,7 +24216,7 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>34.0208</v>
+        <v>34</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -24308,7 +24308,7 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -24538,7 +24538,7 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>7.225</v>
+        <v>7</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>57.9792</v>
+        <v>57</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         </is>
       </c>
       <c r="J526" t="n">
-        <v>7.2292</v>
+        <v>7</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         </is>
       </c>
       <c r="J528" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -24768,7 +24768,7 @@
         </is>
       </c>
       <c r="J529" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>7.925</v>
+        <v>7</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -24952,7 +24952,7 @@
         </is>
       </c>
       <c r="J533" t="n">
-        <v>7.2292</v>
+        <v>7</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         </is>
       </c>
       <c r="J534" t="n">
-        <v>7.2292</v>
+        <v>7</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>22.3583</v>
+        <v>22</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         </is>
       </c>
       <c r="J536" t="n">
-        <v>8.6625</v>
+        <v>8</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         </is>
       </c>
       <c r="J537" t="n">
-        <v>26.25</v>
+        <v>26</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -25182,7 +25182,7 @@
         </is>
       </c>
       <c r="J538" t="n">
-        <v>26.55</v>
+        <v>26</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         </is>
       </c>
       <c r="J539" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -25320,7 +25320,7 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>49.5</v>
+        <v>49</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>31.275</v>
+        <v>31</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         </is>
       </c>
       <c r="J544" t="n">
-        <v>31.275</v>
+        <v>31</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         </is>
       </c>
       <c r="J549" t="n">
-        <v>13.8625</v>
+        <v>13</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>20.525</v>
+        <v>20</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         </is>
       </c>
       <c r="J551" t="n">
-        <v>36.75</v>
+        <v>36</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="J552" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         </is>
       </c>
       <c r="J554" t="n">
-        <v>7.8292</v>
+        <v>7</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -25964,7 +25964,7 @@
         </is>
       </c>
       <c r="J555" t="n">
-        <v>7.225</v>
+        <v>7</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         </is>
       </c>
       <c r="J556" t="n">
-        <v>7.775</v>
+        <v>7</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         </is>
       </c>
       <c r="J557" t="n">
-        <v>26.55</v>
+        <v>26</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -26102,7 +26102,7 @@
         </is>
       </c>
       <c r="J558" t="n">
-        <v>39.6</v>
+        <v>39</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         </is>
       </c>
       <c r="J559" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         </is>
       </c>
       <c r="J561" t="n">
-        <v>17.4</v>
+        <v>17</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -26286,7 +26286,7 @@
         </is>
       </c>
       <c r="J562" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -26332,7 +26332,7 @@
         </is>
       </c>
       <c r="J563" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         </is>
       </c>
       <c r="J564" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         </is>
       </c>
       <c r="J565" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         </is>
       </c>
       <c r="J566" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         </is>
       </c>
       <c r="J567" t="n">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         </is>
       </c>
       <c r="J568" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -26608,7 +26608,7 @@
         </is>
       </c>
       <c r="J569" t="n">
-        <v>21.075</v>
+        <v>21</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -26654,7 +26654,7 @@
         </is>
       </c>
       <c r="J570" t="n">
-        <v>7.2292</v>
+        <v>7</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         </is>
       </c>
       <c r="J571" t="n">
-        <v>7.8542</v>
+        <v>7</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="J572" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         </is>
       </c>
       <c r="J573" t="n">
-        <v>51.4792</v>
+        <v>51</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         </is>
       </c>
       <c r="J574" t="n">
-        <v>26.3875</v>
+        <v>26</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         </is>
       </c>
       <c r="J575" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -26930,7 +26930,7 @@
         </is>
       </c>
       <c r="J576" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -26976,7 +26976,7 @@
         </is>
       </c>
       <c r="J577" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -27068,7 +27068,7 @@
         </is>
       </c>
       <c r="J579" t="n">
-        <v>55.9</v>
+        <v>55</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         </is>
       </c>
       <c r="J580" t="n">
-        <v>14.4583</v>
+        <v>14</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
         </is>
       </c>
       <c r="J581" t="n">
-        <v>7.925</v>
+        <v>7</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -27252,7 +27252,7 @@
         </is>
       </c>
       <c r="J583" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         </is>
       </c>
       <c r="J585" t="n">
-        <v>40.125</v>
+        <v>40</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         </is>
       </c>
       <c r="J586" t="n">
-        <v>8.7125</v>
+        <v>8</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -27436,7 +27436,7 @@
         </is>
       </c>
       <c r="J587" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -27528,7 +27528,7 @@
         </is>
       </c>
       <c r="J589" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         </is>
       </c>
       <c r="J590" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         </is>
       </c>
       <c r="J591" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="J592" t="n">
-        <v>7.125</v>
+        <v>7</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         </is>
       </c>
       <c r="J593" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         </is>
       </c>
       <c r="J594" t="n">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         </is>
       </c>
       <c r="J595" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -27896,7 +27896,7 @@
         </is>
       </c>
       <c r="J597" t="n">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         </is>
       </c>
       <c r="J600" t="n">
-        <v>7.225</v>
+        <v>7</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         </is>
       </c>
       <c r="J601" t="n">
-        <v>56.9292</v>
+        <v>56</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         </is>
       </c>
       <c r="J603" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -28218,7 +28218,7 @@
         </is>
       </c>
       <c r="J604" t="n">
-        <v>42.4</v>
+        <v>42</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -28264,7 +28264,7 @@
         </is>
       </c>
       <c r="J605" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         </is>
       </c>
       <c r="J606" t="n">
-        <v>26.55</v>
+        <v>26</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         </is>
       </c>
       <c r="J607" t="n">
-        <v>15.55</v>
+        <v>15</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -28402,7 +28402,7 @@
         </is>
       </c>
       <c r="J608" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -28448,7 +28448,7 @@
         </is>
       </c>
       <c r="J609" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         </is>
       </c>
       <c r="J610" t="n">
-        <v>41.5792</v>
+        <v>41</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
@@ -28540,7 +28540,7 @@
         </is>
       </c>
       <c r="J611" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
@@ -28586,7 +28586,7 @@
         </is>
       </c>
       <c r="J612" t="n">
-        <v>31.275</v>
+        <v>31</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         </is>
       </c>
       <c r="J613" t="n">
-        <v>7.05</v>
+        <v>7</v>
       </c>
       <c r="K613" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         </is>
       </c>
       <c r="J614" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         </is>
       </c>
       <c r="J615" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         </is>
       </c>
       <c r="J618" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -28908,7 +28908,7 @@
         </is>
       </c>
       <c r="J619" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -29000,7 +29000,7 @@
         </is>
       </c>
       <c r="J621" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         </is>
       </c>
       <c r="J622" t="n">
-        <v>14.4542</v>
+        <v>14</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -29092,7 +29092,7 @@
         </is>
       </c>
       <c r="J623" t="n">
-        <v>52.5542</v>
+        <v>52</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         </is>
       </c>
       <c r="J624" t="n">
-        <v>15.7417</v>
+        <v>15</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -29184,7 +29184,7 @@
         </is>
       </c>
       <c r="J625" t="n">
-        <v>7.8542</v>
+        <v>7</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         </is>
       </c>
       <c r="J626" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>32.3208</v>
+        <v>32</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -29322,7 +29322,7 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>12.35</v>
+        <v>12</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         </is>
       </c>
       <c r="J629" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -29414,7 +29414,7 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         </is>
       </c>
       <c r="J631" t="n">
-        <v>7.7333</v>
+        <v>7</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -29552,7 +29552,7 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>7.0542</v>
+        <v>7</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         </is>
       </c>
       <c r="J634" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -29690,7 +29690,7 @@
         </is>
       </c>
       <c r="J636" t="n">
-        <v>27.9</v>
+        <v>27</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         </is>
       </c>
       <c r="J638" t="n">
-        <v>7.925</v>
+        <v>7</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -29828,7 +29828,7 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>26.25</v>
+        <v>26</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -29874,7 +29874,7 @@
         </is>
       </c>
       <c r="J640" t="n">
-        <v>39.6875</v>
+        <v>39</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -29920,7 +29920,7 @@
         </is>
       </c>
       <c r="J641" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         </is>
       </c>
       <c r="J642" t="n">
-        <v>7.8542</v>
+        <v>7</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         </is>
       </c>
       <c r="J643" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         </is>
       </c>
       <c r="J644" t="n">
-        <v>27.9</v>
+        <v>27</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         </is>
       </c>
       <c r="J645" t="n">
-        <v>56.4958</v>
+        <v>56</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -30150,7 +30150,7 @@
         </is>
       </c>
       <c r="J646" t="n">
-        <v>19.2583</v>
+        <v>19</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         </is>
       </c>
       <c r="J647" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -30242,7 +30242,7 @@
         </is>
       </c>
       <c r="J648" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -30288,7 +30288,7 @@
         </is>
       </c>
       <c r="J649" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -30334,7 +30334,7 @@
         </is>
       </c>
       <c r="J650" t="n">
-        <v>7.55</v>
+        <v>7</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         </is>
       </c>
       <c r="J651" t="n">
-        <v>7.55</v>
+        <v>7</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -30426,7 +30426,7 @@
         </is>
       </c>
       <c r="J652" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -30518,7 +30518,7 @@
         </is>
       </c>
       <c r="J654" t="n">
-        <v>8.433299999999999</v>
+        <v>8</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -30564,7 +30564,7 @@
         </is>
       </c>
       <c r="J655" t="n">
-        <v>7.8292</v>
+        <v>7</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         </is>
       </c>
       <c r="J656" t="n">
-        <v>6.75</v>
+        <v>6</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         </is>
       </c>
       <c r="J657" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -30702,7 +30702,7 @@
         </is>
       </c>
       <c r="J658" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -30748,7 +30748,7 @@
         </is>
       </c>
       <c r="J659" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -30840,7 +30840,7 @@
         </is>
       </c>
       <c r="J661" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -30886,7 +30886,7 @@
         </is>
       </c>
       <c r="J662" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -30932,7 +30932,7 @@
         </is>
       </c>
       <c r="J663" t="n">
-        <v>7.225</v>
+        <v>7</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -30978,7 +30978,7 @@
         </is>
       </c>
       <c r="J664" t="n">
-        <v>25.5875</v>
+        <v>25</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         </is>
       </c>
       <c r="J665" t="n">
-        <v>7.4958</v>
+        <v>7</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -31070,7 +31070,7 @@
         </is>
       </c>
       <c r="J666" t="n">
-        <v>7.925</v>
+        <v>7</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         </is>
       </c>
       <c r="J667" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -31208,7 +31208,7 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>7.775</v>
+        <v>7</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -31254,7 +31254,7 @@
         </is>
       </c>
       <c r="J670" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -31438,7 +31438,7 @@
         </is>
       </c>
       <c r="J674" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -31576,7 +31576,7 @@
         </is>
       </c>
       <c r="J677" t="n">
-        <v>7.775</v>
+        <v>7</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         </is>
       </c>
       <c r="J678" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -31668,7 +31668,7 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>9.841699999999999</v>
+        <v>9</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -31714,7 +31714,7 @@
         </is>
       </c>
       <c r="J680" t="n">
-        <v>46.9</v>
+        <v>46</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -31760,7 +31760,7 @@
         </is>
       </c>
       <c r="J681" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -31806,7 +31806,7 @@
         </is>
       </c>
       <c r="J682" t="n">
-        <v>8.137499999999999</v>
+        <v>8</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -31852,7 +31852,7 @@
         </is>
       </c>
       <c r="J683" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -31898,7 +31898,7 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>9.225</v>
+        <v>9</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -31944,7 +31944,7 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>46.9</v>
+        <v>46</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -32036,7 +32036,7 @@
         </is>
       </c>
       <c r="J687" t="n">
-        <v>41.5792</v>
+        <v>41</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -32082,7 +32082,7 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>39.6875</v>
+        <v>39</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -32128,7 +32128,7 @@
         </is>
       </c>
       <c r="J689" t="n">
-        <v>10.1708</v>
+        <v>10</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -32174,7 +32174,7 @@
         </is>
       </c>
       <c r="J690" t="n">
-        <v>7.7958</v>
+        <v>7</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -32220,7 +32220,7 @@
         </is>
       </c>
       <c r="J691" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -32312,7 +32312,7 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>13.4167</v>
+        <v>13</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -32358,7 +32358,7 @@
         </is>
       </c>
       <c r="J694" t="n">
-        <v>56.4958</v>
+        <v>56</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -32404,7 +32404,7 @@
         </is>
       </c>
       <c r="J695" t="n">
-        <v>7.225</v>
+        <v>7</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -32450,7 +32450,7 @@
         </is>
       </c>
       <c r="J696" t="n">
-        <v>26.55</v>
+        <v>26</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         </is>
       </c>
       <c r="J697" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -32542,7 +32542,7 @@
         </is>
       </c>
       <c r="J698" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -32588,7 +32588,7 @@
         </is>
       </c>
       <c r="J699" t="n">
-        <v>7.7333</v>
+        <v>7</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -32634,7 +32634,7 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -32680,7 +32680,7 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>7.65</v>
+        <v>7</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -32726,7 +32726,7 @@
         </is>
       </c>
       <c r="J702" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         </is>
       </c>
       <c r="J703" t="n">
-        <v>26.2875</v>
+        <v>26</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -32818,7 +32818,7 @@
         </is>
       </c>
       <c r="J704" t="n">
-        <v>14.4542</v>
+        <v>14</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -32864,7 +32864,7 @@
         </is>
       </c>
       <c r="J705" t="n">
-        <v>7.7417</v>
+        <v>7</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -32910,7 +32910,7 @@
         </is>
       </c>
       <c r="J706" t="n">
-        <v>7.8542</v>
+        <v>7</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -33002,7 +33002,7 @@
         </is>
       </c>
       <c r="J708" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         </is>
       </c>
       <c r="J709" t="n">
-        <v>26.2875</v>
+        <v>26</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -33094,7 +33094,7 @@
         </is>
       </c>
       <c r="J710" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -33140,7 +33140,7 @@
         </is>
       </c>
       <c r="J711" t="n">
-        <v>15.2458</v>
+        <v>15</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="J712" t="n">
-        <v>49.5042</v>
+        <v>49</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -33232,7 +33232,7 @@
         </is>
       </c>
       <c r="J713" t="n">
-        <v>26.55</v>
+        <v>26</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -33324,7 +33324,7 @@
         </is>
       </c>
       <c r="J715" t="n">
-        <v>9.4833</v>
+        <v>9</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -33416,7 +33416,7 @@
         </is>
       </c>
       <c r="J717" t="n">
-        <v>7.65</v>
+        <v>7</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -33462,7 +33462,7 @@
         </is>
       </c>
       <c r="J718" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
@@ -33508,7 +33508,7 @@
         </is>
       </c>
       <c r="J719" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K719" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         </is>
       </c>
       <c r="J720" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="K720" t="inlineStr">
         <is>
@@ -33600,7 +33600,7 @@
         </is>
       </c>
       <c r="J721" t="n">
-        <v>7.775</v>
+        <v>7</v>
       </c>
       <c r="K721" t="inlineStr">
         <is>
@@ -33692,7 +33692,7 @@
         </is>
       </c>
       <c r="J723" t="n">
-        <v>7.0542</v>
+        <v>7</v>
       </c>
       <c r="K723" t="inlineStr">
         <is>
@@ -33830,7 +33830,7 @@
         </is>
       </c>
       <c r="J726" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
@@ -33876,7 +33876,7 @@
         </is>
       </c>
       <c r="J727" t="n">
-        <v>8.6625</v>
+        <v>8</v>
       </c>
       <c r="K727" t="inlineStr">
         <is>
@@ -33968,7 +33968,7 @@
         </is>
       </c>
       <c r="J729" t="n">
-        <v>7.7375</v>
+        <v>7</v>
       </c>
       <c r="K729" t="inlineStr">
         <is>
@@ -34060,7 +34060,7 @@
         </is>
       </c>
       <c r="J731" t="n">
-        <v>7.925</v>
+        <v>7</v>
       </c>
       <c r="K731" t="inlineStr">
         <is>
@@ -34106,7 +34106,7 @@
         </is>
       </c>
       <c r="J732" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K732" t="inlineStr">
         <is>
@@ -34152,7 +34152,7 @@
         </is>
       </c>
       <c r="J733" t="n">
-        <v>18.7875</v>
+        <v>18</v>
       </c>
       <c r="K733" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         </is>
       </c>
       <c r="J737" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K737" t="inlineStr">
         <is>
@@ -34382,7 +34382,7 @@
         </is>
       </c>
       <c r="J738" t="n">
-        <v>34.375</v>
+        <v>34</v>
       </c>
       <c r="K738" t="inlineStr">
         <is>
@@ -34428,7 +34428,7 @@
         </is>
       </c>
       <c r="J739" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K739" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         </is>
       </c>
       <c r="J740" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K740" t="inlineStr">
         <is>
@@ -34520,7 +34520,7 @@
         </is>
       </c>
       <c r="J741" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K741" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         </is>
       </c>
       <c r="J743" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K743" t="inlineStr">
         <is>
@@ -34658,7 +34658,7 @@
         </is>
       </c>
       <c r="J744" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K744" t="inlineStr">
         <is>
@@ -34704,7 +34704,7 @@
         </is>
       </c>
       <c r="J745" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K745" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         </is>
       </c>
       <c r="J746" t="n">
-        <v>7.925</v>
+        <v>7</v>
       </c>
       <c r="K746" t="inlineStr">
         <is>
@@ -34796,7 +34796,7 @@
         </is>
       </c>
       <c r="J747" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K747" t="inlineStr">
         <is>
@@ -34842,7 +34842,7 @@
         </is>
       </c>
       <c r="J748" t="n">
-        <v>20.25</v>
+        <v>20</v>
       </c>
       <c r="K748" t="inlineStr">
         <is>
@@ -34934,7 +34934,7 @@
         </is>
       </c>
       <c r="J750" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="K750" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         </is>
       </c>
       <c r="J751" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K751" t="inlineStr">
         <is>
@@ -35072,7 +35072,7 @@
         </is>
       </c>
       <c r="J753" t="n">
-        <v>12.475</v>
+        <v>12</v>
       </c>
       <c r="K753" t="inlineStr">
         <is>
@@ -35118,7 +35118,7 @@
         </is>
       </c>
       <c r="J754" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="K754" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         </is>
       </c>
       <c r="J755" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K755" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         </is>
       </c>
       <c r="J757" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="K757" t="inlineStr">
         <is>
@@ -35302,7 +35302,7 @@
         </is>
       </c>
       <c r="J758" t="n">
-        <v>7.7958</v>
+        <v>7</v>
       </c>
       <c r="K758" t="inlineStr">
         <is>
@@ -35348,7 +35348,7 @@
         </is>
       </c>
       <c r="J759" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="K759" t="inlineStr">
         <is>
@@ -35394,7 +35394,7 @@
         </is>
       </c>
       <c r="J760" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K760" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         </is>
       </c>
       <c r="J761" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K761" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         </is>
       </c>
       <c r="J762" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="K762" t="inlineStr">
         <is>
@@ -35532,7 +35532,7 @@
         </is>
       </c>
       <c r="J763" t="n">
-        <v>7.125</v>
+        <v>7</v>
       </c>
       <c r="K763" t="inlineStr">
         <is>
@@ -35578,7 +35578,7 @@
         </is>
       </c>
       <c r="J764" t="n">
-        <v>7.2292</v>
+        <v>7</v>
       </c>
       <c r="K764" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         </is>
       </c>
       <c r="J765" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K765" t="inlineStr">
         <is>
@@ -35670,7 +35670,7 @@
         </is>
       </c>
       <c r="J766" t="n">
-        <v>7.775</v>
+        <v>7</v>
       </c>
       <c r="K766" t="inlineStr">
         <is>
@@ -35716,7 +35716,7 @@
         </is>
       </c>
       <c r="J767" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K767" t="inlineStr">
         <is>
@@ -35762,7 +35762,7 @@
         </is>
       </c>
       <c r="J768" t="n">
-        <v>39.6</v>
+        <v>39</v>
       </c>
       <c r="K768" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         </is>
       </c>
       <c r="J769" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K769" t="inlineStr">
         <is>
@@ -35854,7 +35854,7 @@
         </is>
       </c>
       <c r="J770" t="n">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="K770" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         </is>
       </c>
       <c r="J771" t="n">
-        <v>8.362500000000001</v>
+        <v>8</v>
       </c>
       <c r="K771" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         </is>
       </c>
       <c r="J772" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="K772" t="inlineStr">
         <is>
@@ -35992,7 +35992,7 @@
         </is>
       </c>
       <c r="J773" t="n">
-        <v>7.8542</v>
+        <v>7</v>
       </c>
       <c r="K773" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         </is>
       </c>
       <c r="J774" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K774" t="inlineStr">
         <is>
@@ -36084,7 +36084,7 @@
         </is>
       </c>
       <c r="J775" t="n">
-        <v>7.225</v>
+        <v>7</v>
       </c>
       <c r="K775" t="inlineStr">
         <is>
@@ -36176,7 +36176,7 @@
         </is>
       </c>
       <c r="J777" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K777" t="inlineStr">
         <is>
@@ -36222,7 +36222,7 @@
         </is>
       </c>
       <c r="J778" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K778" t="inlineStr">
         <is>
@@ -36268,7 +36268,7 @@
         </is>
       </c>
       <c r="J779" t="n">
-        <v>12.475</v>
+        <v>12</v>
       </c>
       <c r="K779" t="inlineStr">
         <is>
@@ -36314,7 +36314,7 @@
         </is>
       </c>
       <c r="J780" t="n">
-        <v>7.7375</v>
+        <v>7</v>
       </c>
       <c r="K780" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         </is>
       </c>
       <c r="J781" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K781" t="inlineStr">
         <is>
@@ -36406,7 +36406,7 @@
         </is>
       </c>
       <c r="J782" t="n">
-        <v>7.2292</v>
+        <v>7</v>
       </c>
       <c r="K782" t="inlineStr">
         <is>
@@ -36544,7 +36544,7 @@
         </is>
       </c>
       <c r="J785" t="n">
-        <v>23.45</v>
+        <v>23</v>
       </c>
       <c r="K785" t="inlineStr">
         <is>
@@ -36590,7 +36590,7 @@
         </is>
       </c>
       <c r="J786" t="n">
-        <v>7.05</v>
+        <v>7</v>
       </c>
       <c r="K786" t="inlineStr">
         <is>
@@ -36636,7 +36636,7 @@
         </is>
       </c>
       <c r="J787" t="n">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="K787" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
         </is>
       </c>
       <c r="J788" t="n">
-        <v>7.4958</v>
+        <v>7</v>
       </c>
       <c r="K788" t="inlineStr">
         <is>
@@ -36728,7 +36728,7 @@
         </is>
       </c>
       <c r="J789" t="n">
-        <v>29.125</v>
+        <v>29</v>
       </c>
       <c r="K789" t="inlineStr">
         <is>
@@ -36774,7 +36774,7 @@
         </is>
       </c>
       <c r="J790" t="n">
-        <v>20.575</v>
+        <v>20</v>
       </c>
       <c r="K790" t="inlineStr">
         <is>
@@ -36820,7 +36820,7 @@
         </is>
       </c>
       <c r="J791" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K791" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="J792" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K792" t="inlineStr">
         <is>
@@ -36958,7 +36958,7 @@
         </is>
       </c>
       <c r="J794" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K794" t="inlineStr">
         <is>
@@ -37004,7 +37004,7 @@
         </is>
       </c>
       <c r="J795" t="n">
-        <v>30.6958</v>
+        <v>30</v>
       </c>
       <c r="K795" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         </is>
       </c>
       <c r="J796" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K796" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         </is>
       </c>
       <c r="J798" t="n">
-        <v>25.9292</v>
+        <v>25</v>
       </c>
       <c r="K798" t="inlineStr">
         <is>
@@ -37188,7 +37188,7 @@
         </is>
       </c>
       <c r="J799" t="n">
-        <v>8.683299999999999</v>
+        <v>8</v>
       </c>
       <c r="K799" t="inlineStr">
         <is>
@@ -37234,7 +37234,7 @@
         </is>
       </c>
       <c r="J800" t="n">
-        <v>7.2292</v>
+        <v>7</v>
       </c>
       <c r="K800" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         </is>
       </c>
       <c r="J801" t="n">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="K801" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         </is>
       </c>
       <c r="J803" t="n">
-        <v>26.25</v>
+        <v>26</v>
       </c>
       <c r="K803" t="inlineStr">
         <is>
@@ -37418,7 +37418,7 @@
         </is>
       </c>
       <c r="J804" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K804" t="inlineStr">
         <is>
@@ -37464,7 +37464,7 @@
         </is>
       </c>
       <c r="J805" t="n">
-        <v>8.5167</v>
+        <v>8</v>
       </c>
       <c r="K805" t="inlineStr">
         <is>
@@ -37510,7 +37510,7 @@
         </is>
       </c>
       <c r="J806" t="n">
-        <v>6.975</v>
+        <v>6</v>
       </c>
       <c r="K806" t="inlineStr">
         <is>
@@ -37556,7 +37556,7 @@
         </is>
       </c>
       <c r="J807" t="n">
-        <v>7.775</v>
+        <v>7</v>
       </c>
       <c r="K807" t="inlineStr">
         <is>
@@ -37648,7 +37648,7 @@
         </is>
       </c>
       <c r="J809" t="n">
-        <v>7.775</v>
+        <v>7</v>
       </c>
       <c r="K809" t="inlineStr">
         <is>
@@ -37740,7 +37740,7 @@
         </is>
       </c>
       <c r="J811" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="K811" t="inlineStr">
         <is>
@@ -37786,7 +37786,7 @@
         </is>
       </c>
       <c r="J812" t="n">
-        <v>7.8875</v>
+        <v>7</v>
       </c>
       <c r="K812" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         </is>
       </c>
       <c r="J813" t="n">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="K813" t="inlineStr">
         <is>
@@ -37878,7 +37878,7 @@
         </is>
       </c>
       <c r="J814" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K814" t="inlineStr">
         <is>
@@ -37924,7 +37924,7 @@
         </is>
       </c>
       <c r="J815" t="n">
-        <v>31.275</v>
+        <v>31</v>
       </c>
       <c r="K815" t="inlineStr">
         <is>
@@ -37970,7 +37970,7 @@
         </is>
       </c>
       <c r="J816" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K816" t="inlineStr">
         <is>
@@ -38062,7 +38062,7 @@
         </is>
       </c>
       <c r="J818" t="n">
-        <v>7.925</v>
+        <v>7</v>
       </c>
       <c r="K818" t="inlineStr">
         <is>
@@ -38108,7 +38108,7 @@
         </is>
       </c>
       <c r="J819" t="n">
-        <v>37.0042</v>
+        <v>37</v>
       </c>
       <c r="K819" t="inlineStr">
         <is>
@@ -38154,7 +38154,7 @@
         </is>
       </c>
       <c r="J820" t="n">
-        <v>6.45</v>
+        <v>6</v>
       </c>
       <c r="K820" t="inlineStr">
         <is>
@@ -38200,7 +38200,7 @@
         </is>
       </c>
       <c r="J821" t="n">
-        <v>27.9</v>
+        <v>27</v>
       </c>
       <c r="K821" t="inlineStr">
         <is>
@@ -38246,7 +38246,7 @@
         </is>
       </c>
       <c r="J822" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K822" t="inlineStr">
         <is>
@@ -38292,7 +38292,7 @@
         </is>
       </c>
       <c r="J823" t="n">
-        <v>8.6625</v>
+        <v>8</v>
       </c>
       <c r="K823" t="inlineStr">
         <is>
@@ -38384,7 +38384,7 @@
         </is>
       </c>
       <c r="J825" t="n">
-        <v>12.475</v>
+        <v>12</v>
       </c>
       <c r="K825" t="inlineStr">
         <is>
@@ -38430,7 +38430,7 @@
         </is>
       </c>
       <c r="J826" t="n">
-        <v>39.6875</v>
+        <v>39</v>
       </c>
       <c r="K826" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         </is>
       </c>
       <c r="J827" t="n">
-        <v>6.95</v>
+        <v>6</v>
       </c>
       <c r="K827" t="inlineStr">
         <is>
@@ -38522,7 +38522,7 @@
         </is>
       </c>
       <c r="J828" t="n">
-        <v>56.4958</v>
+        <v>56</v>
       </c>
       <c r="K828" t="inlineStr">
         <is>
@@ -38568,7 +38568,7 @@
         </is>
       </c>
       <c r="J829" t="n">
-        <v>37.0042</v>
+        <v>37</v>
       </c>
       <c r="K829" t="inlineStr">
         <is>
@@ -38614,7 +38614,7 @@
         </is>
       </c>
       <c r="J830" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K830" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         </is>
       </c>
       <c r="J831" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
@@ -38702,7 +38702,7 @@
         </is>
       </c>
       <c r="J832" t="n">
-        <v>14.4542</v>
+        <v>14</v>
       </c>
       <c r="K832" t="inlineStr">
         <is>
@@ -38748,7 +38748,7 @@
         </is>
       </c>
       <c r="J833" t="n">
-        <v>18.75</v>
+        <v>18</v>
       </c>
       <c r="K833" t="inlineStr">
         <is>
@@ -38794,7 +38794,7 @@
         </is>
       </c>
       <c r="J834" t="n">
-        <v>7.2292</v>
+        <v>7</v>
       </c>
       <c r="K834" t="inlineStr">
         <is>
@@ -38840,7 +38840,7 @@
         </is>
       </c>
       <c r="J835" t="n">
-        <v>7.8542</v>
+        <v>7</v>
       </c>
       <c r="K835" t="inlineStr">
         <is>
@@ -38886,7 +38886,7 @@
         </is>
       </c>
       <c r="J836" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="K836" t="inlineStr">
         <is>
@@ -38932,7 +38932,7 @@
         </is>
       </c>
       <c r="J837" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K837" t="inlineStr">
         <is>
@@ -38978,7 +38978,7 @@
         </is>
       </c>
       <c r="J838" t="n">
-        <v>8.6625</v>
+        <v>8</v>
       </c>
       <c r="K838" t="inlineStr">
         <is>
@@ -39024,7 +39024,7 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="K839" t="inlineStr">
         <is>
@@ -39070,7 +39070,7 @@
         </is>
       </c>
       <c r="J840" t="n">
-        <v>56.4958</v>
+        <v>56</v>
       </c>
       <c r="K840" t="inlineStr">
         <is>
@@ -39116,7 +39116,7 @@
         </is>
       </c>
       <c r="J841" t="n">
-        <v>29.7</v>
+        <v>29</v>
       </c>
       <c r="K841" t="inlineStr">
         <is>
@@ -39162,7 +39162,7 @@
         </is>
       </c>
       <c r="J842" t="n">
-        <v>7.925</v>
+        <v>7</v>
       </c>
       <c r="K842" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         </is>
       </c>
       <c r="J843" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K843" t="inlineStr">
         <is>
@@ -39300,7 +39300,7 @@
         </is>
       </c>
       <c r="J845" t="n">
-        <v>6.4375</v>
+        <v>6</v>
       </c>
       <c r="K845" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>8.6625</v>
+        <v>8</v>
       </c>
       <c r="K846" t="inlineStr">
         <is>
@@ -39392,7 +39392,7 @@
         </is>
       </c>
       <c r="J847" t="n">
-        <v>7.55</v>
+        <v>7</v>
       </c>
       <c r="K847" t="inlineStr">
         <is>
@@ -39438,7 +39438,7 @@
         </is>
       </c>
       <c r="J848" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K848" t="inlineStr">
         <is>
@@ -39484,7 +39484,7 @@
         </is>
       </c>
       <c r="J849" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K849" t="inlineStr">
         <is>
@@ -39576,7 +39576,7 @@
         </is>
       </c>
       <c r="J851" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K851" t="inlineStr">
         <is>
@@ -39622,7 +39622,7 @@
         </is>
       </c>
       <c r="J852" t="n">
-        <v>31.275</v>
+        <v>31</v>
       </c>
       <c r="K852" t="inlineStr">
         <is>
@@ -39668,7 +39668,7 @@
         </is>
       </c>
       <c r="J853" t="n">
-        <v>7.775</v>
+        <v>7</v>
       </c>
       <c r="K853" t="inlineStr">
         <is>
@@ -39714,7 +39714,7 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>15.2458</v>
+        <v>15</v>
       </c>
       <c r="K854" t="inlineStr">
         <is>
@@ -39760,7 +39760,7 @@
         </is>
       </c>
       <c r="J855" t="n">
-        <v>39.4</v>
+        <v>39</v>
       </c>
       <c r="K855" t="inlineStr">
         <is>
@@ -39852,7 +39852,7 @@
         </is>
       </c>
       <c r="J857" t="n">
-        <v>9.35</v>
+        <v>9</v>
       </c>
       <c r="K857" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         </is>
       </c>
       <c r="J858" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K858" t="inlineStr">
         <is>
@@ -39944,7 +39944,7 @@
         </is>
       </c>
       <c r="J859" t="n">
-        <v>26.55</v>
+        <v>26</v>
       </c>
       <c r="K859" t="inlineStr">
         <is>
@@ -39990,7 +39990,7 @@
         </is>
       </c>
       <c r="J860" t="n">
-        <v>19.2583</v>
+        <v>19</v>
       </c>
       <c r="K860" t="inlineStr">
         <is>
@@ -40036,7 +40036,7 @@
         </is>
       </c>
       <c r="J861" t="n">
-        <v>7.2292</v>
+        <v>7</v>
       </c>
       <c r="K861" t="inlineStr">
         <is>
@@ -40082,7 +40082,7 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>14.1083</v>
+        <v>14</v>
       </c>
       <c r="K862" t="inlineStr">
         <is>
@@ -40128,7 +40128,7 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="K863" t="inlineStr">
         <is>
@@ -40174,7 +40174,7 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>25.9292</v>
+        <v>25</v>
       </c>
       <c r="K864" t="inlineStr">
         <is>
@@ -40220,7 +40220,7 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K865" t="inlineStr">
         <is>
@@ -40358,7 +40358,7 @@
         </is>
       </c>
       <c r="J868" t="n">
-        <v>13.8583</v>
+        <v>13</v>
       </c>
       <c r="K868" t="inlineStr">
         <is>
@@ -40404,7 +40404,7 @@
         </is>
       </c>
       <c r="J869" t="n">
-        <v>50.4958</v>
+        <v>50</v>
       </c>
       <c r="K869" t="inlineStr">
         <is>
@@ -40450,7 +40450,7 @@
         </is>
       </c>
       <c r="J870" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="K870" t="inlineStr">
         <is>
@@ -40496,7 +40496,7 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>11.1333</v>
+        <v>11</v>
       </c>
       <c r="K871" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         </is>
       </c>
       <c r="J872" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K872" t="inlineStr">
         <is>
@@ -40588,7 +40588,7 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>52.5542</v>
+        <v>52</v>
       </c>
       <c r="K873" t="inlineStr">
         <is>
@@ -40772,7 +40772,7 @@
         </is>
       </c>
       <c r="J877" t="n">
-        <v>7.225</v>
+        <v>7</v>
       </c>
       <c r="K877" t="inlineStr">
         <is>
@@ -40818,7 +40818,7 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>9.845800000000001</v>
+        <v>9</v>
       </c>
       <c r="K878" t="inlineStr">
         <is>
@@ -40864,7 +40864,7 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K879" t="inlineStr">
         <is>
@@ -40910,7 +40910,7 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K880" t="inlineStr">
         <is>
@@ -40956,7 +40956,7 @@
         </is>
       </c>
       <c r="J881" t="n">
-        <v>65.6344</v>
+        <v>67</v>
       </c>
       <c r="K881" t="inlineStr">
         <is>
@@ -41048,7 +41048,7 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>7.8958</v>
+        <v>7</v>
       </c>
       <c r="K883" t="inlineStr">
         <is>
@@ -41094,7 +41094,7 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>10.5167</v>
+        <v>10</v>
       </c>
       <c r="K884" t="inlineStr">
         <is>
@@ -41140,7 +41140,7 @@
         </is>
       </c>
       <c r="J885" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K885" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="J886" t="n">
-        <v>7.05</v>
+        <v>7</v>
       </c>
       <c r="K886" t="inlineStr">
         <is>
@@ -41232,7 +41232,7 @@
         </is>
       </c>
       <c r="J887" t="n">
-        <v>29.125</v>
+        <v>29</v>
       </c>
       <c r="K887" t="inlineStr">
         <is>
@@ -41370,7 +41370,7 @@
         </is>
       </c>
       <c r="J890" t="n">
-        <v>23.45</v>
+        <v>23</v>
       </c>
       <c r="K890" t="inlineStr">
         <is>
@@ -41462,7 +41462,7 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="K892" t="inlineStr">
         <is>
